--- a/Budget/Budget.xlsx
+++ b/Budget/Budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S543773\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S543773\Desktop\pm-s04-g07-project\Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA4D57B-66B8-489C-B8D0-315B74C76A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4394A70-5C7C-477E-923C-453AA696AEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5A4D96A-CE33-4901-8179-BB812BE61D24}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Role</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
     <t>Akanksha Sudhagoni</t>
   </si>
   <si>
@@ -68,19 +65,28 @@
     <t>Designer</t>
   </si>
   <si>
-    <t>Unit hours per week</t>
-  </si>
-  <si>
-    <t>Total cost per week</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Total cost for 14 weeks</t>
-  </si>
-  <si>
-    <t>No.of weeks</t>
+    <t>Hourly Rate</t>
+  </si>
+  <si>
+    <t>Hours per week</t>
+  </si>
+  <si>
+    <t>Total pay for 14 weeks</t>
+  </si>
+  <si>
+    <t>Total pay per week</t>
+  </si>
+  <si>
+    <t>Total Project Value</t>
+  </si>
+  <si>
+    <t>Total Project Cost</t>
+  </si>
+  <si>
+    <t>Estimated Profit</t>
   </si>
 </sst>
 </file>
@@ -91,8 +97,16 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,15 +130,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,164 +475,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FF357C-4342-48F4-8A0B-1592398BCB3C}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6">
+        <v>90</v>
+      </c>
+      <c r="E2" s="6">
+        <f>C2*D2</f>
+        <v>900</v>
+      </c>
+      <c r="F2" s="6">
+        <v>12600</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+      <c r="D3" s="6">
+        <v>80</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E5" si="0">C3*D3</f>
+        <v>1120</v>
+      </c>
+      <c r="F3" s="6">
+        <v>15680</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6">
+        <v>75</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="F4" s="6">
+        <v>21000</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6">
+        <v>65</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>1105</v>
+      </c>
+      <c r="F5" s="6">
+        <v>15470</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>1220</v>
-      </c>
-      <c r="E2" s="3">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:G5" si="0">C2*D2</f>
-        <v>12200</v>
-      </c>
-      <c r="G2" s="2">
-        <f t="shared" si="0"/>
-        <v>17080</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1400</v>
-      </c>
-      <c r="E3" s="3">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
-        <v>19600</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" si="0"/>
-        <v>19600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1800</v>
-      </c>
-      <c r="E4" s="3">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>36000</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>25200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1600</v>
-      </c>
-      <c r="E5" s="3">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>27200</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
         <f>SUM(C2:C5)</f>
         <v>61</v>
       </c>
-      <c r="D7" s="2">
-        <f>SUM(D2:D5)</f>
-        <v>6020</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <f>SUM(E2:E5)</f>
+        <v>4625</v>
+      </c>
+      <c r="F7" s="6">
         <f>SUM(F2:F5)</f>
-        <v>95000</v>
-      </c>
-      <c r="G7" s="2">
-        <f>SUM(G2:G5)</f>
-        <v>84280</v>
+        <v>64750</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>64750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15250</v>
       </c>
     </row>
   </sheetData>

--- a/Budget/Budget.xlsx
+++ b/Budget/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S543773\Desktop\pm-s04-g07-project\Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4394A70-5C7C-477E-923C-453AA696AEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3FD47C-649F-481B-8325-E58B8D3F1A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5A4D96A-CE33-4901-8179-BB812BE61D24}"/>
   </bookViews>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -161,6 +161,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +178,974 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Budget Overview</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="bar"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$12:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total Project Value</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Project Cost</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Estimated Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$12:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CDB-4A87-B3F0-09D391C8C82B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07988FC-2C26-4CA4-BB38-8A3F7D4C8B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FF357C-4342-48F4-8A0B-1592398BCB3C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,31 +1597,32 @@
       <c r="G7" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="8">
         <v>80000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="8">
         <v>64750</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="8">
         <v>15250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Budget/Budget.xlsx
+++ b/Budget/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S543773\Desktop\pm-s04-g07-project\Budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S542046\Desktop\ASSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3FD47C-649F-481B-8325-E58B8D3F1A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A38911B6-319D-45F9-83F2-2DE304E54B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5A4D96A-CE33-4901-8179-BB812BE61D24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C5A4D96A-CE33-4901-8179-BB812BE61D24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Ajay Kumar Nelluri</t>
   </si>
   <si>
-    <t>Rohitreddy Chandupatla</t>
-  </si>
-  <si>
     <t>Product Owner</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Estimated Profit</t>
+  </si>
+  <si>
+    <t>Rohit Reddy Chandupatla</t>
   </si>
 </sst>
 </file>
@@ -149,20 +149,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -280,6 +282,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BA33-48BF-A8A5-59E82984C268}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -303,6 +310,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BA33-48BF-A8A5-59E82984C268}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -326,6 +338,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BA33-48BF-A8A5-59E82984C268}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -351,6 +368,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BA33-48BF-A8A5-59E82984C268}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1447,176 +1469,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FF357C-4342-48F4-8A0B-1592398BCB3C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>90</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <f>C2*D2</f>
         <v>900</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>12600</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
         <v>14</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>80</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E5" si="0">C3*D3</f>
         <v>1120</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>15680</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
         <v>20</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>75</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>21000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
         <v>65</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>1105</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>15470</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <f>SUM(C2:C5)</f>
         <v>61</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <f>SUM(E2:E5)</f>
         <v>4625</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8">
-        <v>80000</v>
+      <c r="D13" s="4">
+        <v>64750</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8">
-        <v>64750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="D14" s="4">
         <v>15250</v>
       </c>
     </row>
